--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1549830\Desktop\InformatiqueAutomne2023\GenieLog I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD718C-B77F-4BB1-9E3E-1614E5D19008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FCEEB7-9AF1-4331-926C-5FB3CF616ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="0" windowWidth="16200" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="14295" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="294">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1071,6 +1071,24 @@
   </si>
   <si>
     <t>S'il y a collision entre doc et dalek, partie terminée…</t>
+  </si>
+  <si>
+    <t>Vérifier position Doc soit dans l'aire d ejeu</t>
+  </si>
+  <si>
+    <t>Vérifier position Daleks soit dans aire de jeu</t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>petite note pr verifier que dalek ont meme position et les enlever ensuite: objet set … cest comme une liste… si objet se trouve déjà dedans il ne fait pas une deuxieme copie</t>
+  </si>
+  <si>
+    <t>fait à cause qu'il suivent le doc</t>
+  </si>
+  <si>
+    <t>pas tout à fait</t>
   </si>
 </sst>
 </file>
@@ -2133,46 +2151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2200,6 +2178,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2535,7 +2553,7 @@
   </sheetPr>
   <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2892,22 +2910,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="132"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -2916,22 +2934,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="132"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -2946,34 +2964,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="132"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2992,7 +3010,7 @@
   </sheetPr>
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -3093,7 +3111,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="149" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16"/>
@@ -3101,7 +3119,7 @@
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="135"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="22" t="s">
         <v>153</v>
       </c>
@@ -3113,7 +3131,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="135"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="22" t="s">
         <v>151</v>
       </c>
@@ -3125,7 +3143,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="135"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="22" t="s">
         <v>154</v>
       </c>
@@ -3137,7 +3155,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="135"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="22" t="s">
         <v>152</v>
       </c>
@@ -3149,7 +3167,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="135"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="22" t="s">
         <v>155</v>
       </c>
@@ -3161,7 +3179,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="135"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="22" t="s">
         <v>156</v>
       </c>
@@ -3173,39 +3191,39 @@
       </c>
     </row>
     <row r="20" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B20" s="135"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="133" t="s">
         <v>193</v>
       </c>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21" s="135"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="150" t="s">
+      <c r="E21" s="136" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="135"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="150"/>
+      <c r="E22" s="136"/>
     </row>
     <row r="23" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="135"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="22" t="s">
         <v>185</v>
       </c>
@@ -3217,11 +3235,11 @@
       </c>
     </row>
     <row r="24" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B24" s="135"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="152" t="s">
+      <c r="D24" s="138" t="s">
         <v>202</v>
       </c>
       <c r="E24" s="41" t="s">
@@ -3229,11 +3247,11 @@
       </c>
     </row>
     <row r="25" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B25" s="135"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="138" t="s">
         <v>212</v>
       </c>
       <c r="E25" s="41" t="s">
@@ -3241,9 +3259,9 @@
       </c>
     </row>
     <row r="26" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B26" s="135"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="152" t="s">
+      <c r="D26" s="138" t="s">
         <v>180</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -3251,9 +3269,9 @@
       </c>
     </row>
     <row r="27" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B27" s="135"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="138" t="s">
         <v>181</v>
       </c>
       <c r="E27" s="41" t="s">
@@ -3261,9 +3279,9 @@
       </c>
     </row>
     <row r="28" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B28" s="135"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="152" t="s">
+      <c r="D28" s="138" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="41" t="s">
@@ -3271,67 +3289,67 @@
       </c>
     </row>
     <row r="29" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B29" s="135"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="152" t="s">
+      <c r="D29" s="138" t="s">
         <v>192</v>
       </c>
       <c r="E29" s="41"/>
     </row>
     <row r="30" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B30" s="135"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="38"/>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="135" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="41"/>
     </row>
     <row r="31" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B31" s="135"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="149" t="s">
+      <c r="D31" s="135" t="s">
         <v>197</v>
       </c>
       <c r="E31" s="41"/>
     </row>
     <row r="32" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B32" s="135"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="149" t="s">
+      <c r="D32" s="135" t="s">
         <v>198</v>
       </c>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B33" s="135"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="135" t="s">
         <v>199</v>
       </c>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B34" s="135"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="149" t="s">
+      <c r="D34" s="135" t="s">
         <v>200</v>
       </c>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" s="131" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B35" s="135"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="149"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="151"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="137"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="145" t="s">
+      <c r="B37" s="152" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -3345,7 +3363,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="135"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="131" t="s">
         <v>188</v>
       </c>
@@ -3355,14 +3373,14 @@
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="135"/>
+      <c r="B39" s="150"/>
       <c r="D39" s="18" t="s">
         <v>203</v>
       </c>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="135"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18" t="s">
         <v>204</v>
@@ -3370,37 +3388,37 @@
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="135"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="135"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="135"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="135"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="136"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="19"/>
       <c r="D45" s="40"/>
       <c r="E45" s="20"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="152" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -3412,7 +3430,7 @@
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="135"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
@@ -3422,7 +3440,7 @@
       <c r="E47" s="41"/>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="135"/>
+      <c r="B48" s="150"/>
       <c r="C48" s="22" t="s">
         <v>191</v>
       </c>
@@ -3432,43 +3450,43 @@
       <c r="E48" s="41"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="135"/>
+      <c r="B49" s="150"/>
       <c r="C49" s="22"/>
       <c r="D49" s="18"/>
       <c r="E49" s="41"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="135"/>
+      <c r="B50" s="150"/>
       <c r="C50" s="22"/>
       <c r="D50" s="18"/>
       <c r="E50" s="41"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="135"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="22"/>
       <c r="D51" s="18"/>
       <c r="E51" s="41"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="135"/>
+      <c r="B52" s="150"/>
       <c r="C52" s="22"/>
       <c r="D52" s="18"/>
       <c r="E52" s="41"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="135"/>
+      <c r="B53" s="150"/>
       <c r="C53" s="22"/>
       <c r="D53" s="18"/>
       <c r="E53" s="41"/>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="135"/>
+      <c r="B54" s="150"/>
       <c r="C54" s="22"/>
       <c r="D54" s="18"/>
       <c r="E54" s="41"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="136"/>
+      <c r="B55" s="151"/>
       <c r="C55" s="24"/>
       <c r="D55" s="25"/>
       <c r="E55" s="46"/>
@@ -3491,8 +3509,8 @@
   </sheetPr>
   <dimension ref="B2:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3517,20 +3535,20 @@
     </row>
     <row r="3" spans="2:6" ht="56.25" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -3605,25 +3623,25 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="155"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="110" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="153"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143" t="s">
         <v>219</v>
       </c>
       <c r="F13" s="110" t="s">
@@ -3631,470 +3649,470 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146" t="s">
+      <c r="B15" s="132"/>
+      <c r="C15" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146" t="s">
+      <c r="D15" s="132"/>
+      <c r="E15" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="F15" s="146"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146" t="s">
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132" t="s">
         <v>258</v>
       </c>
-      <c r="F16" s="146"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="146"/>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146" t="s">
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="146"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146" t="s">
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146" t="s">
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="146"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146" t="s">
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="146"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146" t="s">
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146" t="s">
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="F25" s="146"/>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="146"/>
-      <c r="C27" s="146" t="s">
+      <c r="B27" s="132"/>
+      <c r="C27" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146" t="s">
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18" customHeight="1">
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146" t="s">
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="146" t="s">
+      <c r="F28" s="132" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146" t="s">
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="146"/>
+      <c r="F31" s="132"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146" t="s">
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="146"/>
+      <c r="F32" s="132"/>
     </row>
     <row r="33" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146" t="s">
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="146"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="34" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C34" s="146"/>
-      <c r="D34" s="146" t="s">
+      <c r="C34" s="132"/>
+      <c r="D34" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
     </row>
     <row r="35" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146" t="s">
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="146"/>
+      <c r="F35" s="132"/>
     </row>
     <row r="36" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="146"/>
+      <c r="F36" s="132"/>
     </row>
     <row r="37" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146" t="s">
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="F37" s="146"/>
+      <c r="F37" s="132"/>
     </row>
     <row r="38" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146" t="s">
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="146"/>
+      <c r="F38" s="132"/>
     </row>
     <row r="39" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C39" s="146"/>
-      <c r="D39" s="146" t="s">
+      <c r="C39" s="132"/>
+      <c r="D39" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-    </row>
-    <row r="40" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146" t="s">
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+    </row>
+    <row r="40" spans="3:6" ht="30">
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="146"/>
+      <c r="F40" s="132"/>
     </row>
     <row r="41" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146" t="s">
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="146"/>
+      <c r="F41" s="132"/>
     </row>
     <row r="42" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146" t="s">
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="F42" s="146"/>
+      <c r="F42" s="132"/>
     </row>
     <row r="43" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C43" s="146"/>
-      <c r="D43" s="146" t="s">
+      <c r="C43" s="132"/>
+      <c r="D43" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
     </row>
     <row r="44" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146" t="s">
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="146"/>
+      <c r="F44" s="132"/>
     </row>
     <row r="45" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146" t="s">
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="146"/>
+      <c r="F45" s="132"/>
     </row>
     <row r="46" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146" t="s">
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="F46" s="146"/>
+      <c r="F46" s="132"/>
     </row>
     <row r="47" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146" t="s">
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="F47" s="146"/>
+      <c r="F47" s="132"/>
     </row>
     <row r="48" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146" t="s">
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="146"/>
+      <c r="F48" s="132"/>
     </row>
     <row r="49" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146" t="s">
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="F49" s="146"/>
+      <c r="F49" s="132"/>
     </row>
     <row r="50" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146" t="s">
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="146"/>
+      <c r="F50" s="132"/>
     </row>
     <row r="51" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146" t="s">
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="146"/>
+      <c r="F51" s="132"/>
     </row>
     <row r="52" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
     </row>
     <row r="53" spans="3:6" ht="33" customHeight="1">
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146" t="s">
+      <c r="C53" s="132"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="F53" s="146"/>
+      <c r="F53" s="132"/>
     </row>
     <row r="54" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146" t="s">
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="F54" s="146"/>
+      <c r="F54" s="132"/>
     </row>
     <row r="55" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146" t="s">
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="146"/>
+      <c r="F55" s="132"/>
     </row>
     <row r="56" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
     </row>
     <row r="57" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146" t="s">
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="146"/>
+      <c r="F57" s="132"/>
     </row>
     <row r="58" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C58" s="146"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="146"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
     </row>
     <row r="59" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C59" s="146" t="s">
+      <c r="C59" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
     </row>
     <row r="60" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146" t="s">
+      <c r="C60" s="132"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="F60" s="146"/>
+      <c r="F60" s="132"/>
     </row>
     <row r="61" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C61" s="146"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146" t="s">
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="146"/>
+      <c r="F61" s="132"/>
     </row>
     <row r="62" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146" t="s">
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="F62" s="146"/>
+      <c r="F62" s="132"/>
     </row>
     <row r="63" spans="3:6" ht="15.75" customHeight="1">
-      <c r="F63" s="146"/>
+      <c r="F63" s="132"/>
     </row>
     <row r="64" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C64" s="146" t="s">
+      <c r="C64" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146" t="s">
+      <c r="D64" s="132"/>
+      <c r="E64" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="F64" s="146"/>
+      <c r="F64" s="132"/>
     </row>
     <row r="65" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146" t="s">
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="132" t="s">
         <v>264</v>
       </c>
-      <c r="F65" s="146"/>
+      <c r="F65" s="132"/>
     </row>
     <row r="66" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146" t="s">
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="F66" s="146"/>
+      <c r="F66" s="132"/>
     </row>
     <row r="67" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
     </row>
     <row r="68" spans="3:6" ht="30">
-      <c r="C68" s="146" t="s">
+      <c r="C68" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="F68" s="146"/>
+      <c r="F68" s="132"/>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
-      <c r="D69" s="146" t="s">
+      <c r="D69" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="E69" s="146"/>
+      <c r="E69" s="132"/>
     </row>
     <row r="70" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E70" s="158" t="s">
+      <c r="E70" s="144" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C72" s="158" t="s">
+      <c r="C72" s="144" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
-      <c r="D73" s="158" t="s">
+      <c r="D73" s="144" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E74" s="158" t="s">
+      <c r="E74" s="144" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4104,7 +4122,7 @@
       </c>
     </row>
     <row r="96" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C96" s="146" t="s">
+      <c r="C96" s="132" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4122,26 +4140,26 @@
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1">
-      <c r="C99" s="146"/>
+      <c r="C99" s="132"/>
     </row>
     <row r="100" spans="3:4" ht="15.75" customHeight="1">
-      <c r="C100" s="146" t="s">
+      <c r="C100" s="132" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" customHeight="1">
-      <c r="C101" s="146" t="s">
+      <c r="C101" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="D101" s="154" t="s">
+      <c r="D101" s="140" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15.75" customHeight="1">
-      <c r="D102" s="146"/>
+      <c r="D102" s="132"/>
     </row>
     <row r="103" spans="3:4" ht="15.75" customHeight="1">
-      <c r="D103" s="146"/>
+      <c r="D103" s="132"/>
     </row>
     <row r="104" spans="3:4" ht="12.75"/>
     <row r="105" spans="3:4" ht="12.75">
@@ -4347,13 +4365,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="141"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="157"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -4559,9 +4577,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="139"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -4597,9 +4615,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="139"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -4644,14 +4662,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4693,14 +4711,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -4823,12 +4841,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
     </row>
     <row r="2" spans="2:11" ht="12.75"/>
     <row r="3" spans="2:11" ht="12.75">
@@ -4851,10 +4869,10 @@
       <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="148"/>
       <c r="G7" s="113" t="s">
         <v>103</v>
       </c>
@@ -4945,10 +4963,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4962,18 +4980,18 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="57" customHeight="1">
+    <row r="1" spans="2:9" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+    </row>
+    <row r="2" spans="2:9" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
       <c r="C2" s="116"/>
       <c r="D2" s="115"/>
@@ -4981,7 +4999,7 @@
       <c r="F2" s="115"/>
       <c r="H2" s="115"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
+    <row r="3" spans="2:9" ht="12.75" customHeight="1">
       <c r="B3" s="115"/>
       <c r="C3" s="116"/>
       <c r="D3" s="115"/>
@@ -4989,7 +5007,7 @@
       <c r="F3" s="115"/>
       <c r="H3" s="115"/>
     </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1">
+    <row r="4" spans="2:9" ht="12.75" customHeight="1">
       <c r="B4" s="56" t="s">
         <v>117</v>
       </c>
@@ -5001,7 +5019,7 @@
       <c r="F4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="2:8" ht="12.75">
+    <row r="5" spans="2:9" ht="12.75">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="117"/>
@@ -5010,7 +5028,7 @@
       <c r="G5" s="117"/>
       <c r="H5" s="117"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
+    <row r="6" spans="2:9" ht="12.75" customHeight="1">
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="115"/>
@@ -5018,8 +5036,8 @@
       <c r="F6" s="115"/>
       <c r="H6" s="115"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="159" t="s">
+    <row r="7" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B7" s="145" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="116"/>
@@ -5039,7 +5057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1">
+    <row r="8" spans="2:9" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
       <c r="D8" s="121" t="s">
         <v>125</v>
@@ -5048,19 +5066,25 @@
       <c r="F8" s="122"/>
       <c r="G8" s="122"/>
       <c r="H8" s="123"/>
-    </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
       <c r="C9" s="124"/>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="146" t="s">
         <v>277</v>
       </c>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
       <c r="H9" s="126"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+      <c r="I9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" customHeight="1">
       <c r="B10" s="113" t="s">
         <v>126</v>
       </c>
@@ -5072,8 +5096,11 @@
       <c r="F10" s="128"/>
       <c r="G10" s="128"/>
       <c r="H10" s="129"/>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1">
+      <c r="I10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" customHeight="1">
       <c r="B11" s="56" t="s">
         <v>127</v>
       </c>
@@ -5085,45 +5112,82 @@
       <c r="F11" s="128"/>
       <c r="G11" s="128"/>
       <c r="H11" s="129"/>
-    </row>
-    <row r="12" spans="2:8" ht="38.25">
+      <c r="I11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="25.5">
       <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="38.25">
+      <c r="D13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="51">
+      <c r="D14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="38.25">
+      <c r="D15" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="38.25">
-      <c r="D13" t="s">
+      <c r="I15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="38.25">
+      <c r="D16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="25.5">
-      <c r="D14" t="s">
+    <row r="17" spans="4:9" ht="25.5">
+      <c r="D17" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="38.25">
-      <c r="D15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="51">
-      <c r="D16" t="s">
+      <c r="I17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="51">
+      <c r="D18" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" ht="38.25">
-      <c r="D17" t="s">
+      <c r="I18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="38.25">
+      <c r="D19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="38.25">
-      <c r="D18" t="s">
+    <row r="20" spans="4:9" ht="38.25">
+      <c r="D20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D19" t="s">
+    <row r="21" spans="4:9" ht="38.25">
+      <c r="D21" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="12.75"/>
+    <row r="28" spans="4:9" ht="114.75">
+      <c r="D28" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5183,12 +5247,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
